--- a/public/student.xlsx
+++ b/public/student.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C225E301-A008-4DAD-B00D-3C08C46D412E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734A2D6F-948B-4027-ABE2-C2845078D44E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="0" xr2:uid="{506CC807-B498-4F4C-A8A7-231D0F5E2DB2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>first_name</t>
   </si>
@@ -135,9 +135,6 @@
     <t>academic_year_title</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>mother_name</t>
   </si>
   <si>
@@ -147,9 +144,6 @@
     <t>mother_profession</t>
   </si>
   <si>
-    <t>Nine</t>
-  </si>
-  <si>
     <t>student_1</t>
   </si>
   <si>
@@ -159,37 +153,13 @@
     <t>student_3</t>
   </si>
   <si>
-    <t>student_4</t>
-  </si>
-  <si>
-    <t>student_5</t>
-  </si>
-  <si>
-    <t>student_6</t>
-  </si>
-  <si>
-    <t>student_7</t>
-  </si>
-  <si>
-    <t>student_8</t>
-  </si>
-  <si>
-    <t>admission48</t>
-  </si>
-  <si>
-    <t>admission49</t>
-  </si>
-  <si>
-    <t>admission50</t>
-  </si>
-  <si>
-    <t>admission51</t>
-  </si>
-  <si>
-    <t>admission52</t>
-  </si>
-  <si>
     <t>2023-04-29T07:21:50.000Z</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>Day</t>
   </si>
 </sst>
 </file>
@@ -557,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB32AF93-9D26-489A-A86D-0F25701A277A}">
-  <dimension ref="A1:AH9"/>
+  <dimension ref="A1:AH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,13 +640,13 @@
         <v>15</v>
       </c>
       <c r="X1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>38</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>39</v>
       </c>
       <c r="AA1" t="s">
         <v>16</v>
@@ -705,34 +675,34 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>342</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="M2" t="s">
         <v>28</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="O2" t="s">
         <v>29</v>
@@ -741,34 +711,34 @@
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>343</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
         <v>31</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3">
         <v>26</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M3" t="s">
         <v>28</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="O3" t="s">
         <v>29</v>
@@ -777,219 +747,39 @@
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>4534</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
         <v>32</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M4" t="s">
         <v>28</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="O4" t="s">
         <v>29</v>
       </c>
       <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5">
-        <v>5931.6666666666697</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O5" t="s">
-        <v>29</v>
-      </c>
-      <c r="S5" s="1"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6">
-        <v>8027.6666666666697</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>29</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>28</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" t="s">
-        <v>29</v>
-      </c>
-      <c r="S6" s="1"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7">
-        <v>10123.666666666701</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>30</v>
-      </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>28</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8">
-        <v>12219.666666666701</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>31</v>
-      </c>
-      <c r="I8" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O8" t="s">
-        <v>29</v>
-      </c>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9">
-        <v>14315.666666666701</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>32</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="O9" t="s">
-        <v>29</v>
-      </c>
-      <c r="S9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
